--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -8474,7 +8474,7 @@
       </c>
       <c r="C2" s="51" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_13-21</v>
+        <v>2020-12-03_15-13</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>168</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="629">
   <si>
     <t>type</t>
   </si>
@@ -1133,9 +1133,6 @@
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be in 3 days after ${next_appointment_date}</t>
-  </si>
-  <si>
-    <t>Follow up ${patient_name} on return within 1 day</t>
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be in  1 day after ${developmental_next_assignment_date}</t>
@@ -10966,7 +10963,7 @@
       </c>
       <c r="B188" s="48"/>
       <c r="C188" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -11012,7 +11009,7 @@
       </c>
       <c r="B189" s="48"/>
       <c r="C189" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -11596,7 +11593,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>1</v>
@@ -11638,13 +11635,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -11668,13 +11665,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>370</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>371</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -11722,13 +11719,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="C5" s="67" t="s">
         <v>373</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>374</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
@@ -11752,13 +11749,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>375</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>376</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -11782,13 +11779,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>377</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>378</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -11812,13 +11809,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>379</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>380</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -11866,13 +11863,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>382</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>383</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -11896,13 +11893,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>384</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>385</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -11950,13 +11947,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="70" t="s">
         <v>387</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>388</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -11980,13 +11977,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>389</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>390</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -12010,13 +12007,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>391</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>392</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -12064,13 +12061,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>393</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>394</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -12094,13 +12091,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -12148,13 +12145,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="C20" s="70" t="s">
         <v>397</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>398</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -12178,13 +12175,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>399</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>400</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -12208,13 +12205,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>401</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>402</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -12238,13 +12235,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>403</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>404</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -12268,13 +12265,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -12320,13 +12317,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="B26" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="C26" s="70" t="s">
         <v>408</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>409</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -12350,13 +12347,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B27" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>410</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>411</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -12380,13 +12377,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B28" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>412</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>413</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -12410,13 +12407,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="71" t="s">
         <v>397</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>398</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -12440,13 +12437,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B30" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>399</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>400</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -12470,13 +12467,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="70" t="s">
         <v>401</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>402</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -12500,13 +12497,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="70" t="s">
         <v>403</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>404</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -12530,13 +12527,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -12584,70 +12581,70 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B39" s="9">
         <v>3.0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B40" s="9">
         <v>7.0</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9">
         <v>13.0</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="9">
         <v>14.0</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -12682,13 +12679,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="C45" s="74" t="s">
         <v>426</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>427</v>
       </c>
       <c r="D45" s="62"/>
       <c r="E45" s="62"/>
@@ -12715,13 +12712,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" s="75" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D46" s="62"/>
       <c r="E46" s="62"/>
@@ -12778,7 +12775,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>91</v>
@@ -12811,7 +12808,7 @@
         <v>87</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>99</v>
@@ -12844,10 +12841,10 @@
         <v>87</v>
       </c>
       <c r="B50" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>431</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>432</v>
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="62"/>
@@ -12877,10 +12874,10 @@
         <v>87</v>
       </c>
       <c r="B51" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="62" t="s">
         <v>433</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>434</v>
       </c>
       <c r="D51" s="62"/>
       <c r="E51" s="62"/>
@@ -12910,7 +12907,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>122</v>
@@ -12943,7 +12940,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>117</v>
@@ -12976,10 +12973,10 @@
         <v>87</v>
       </c>
       <c r="B54" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="62" t="s">
         <v>437</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>438</v>
       </c>
       <c r="D54" s="62"/>
       <c r="E54" s="62"/>
@@ -13009,10 +13006,10 @@
         <v>87</v>
       </c>
       <c r="B55" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="62" t="s">
         <v>439</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>440</v>
       </c>
       <c r="D55" s="62"/>
       <c r="E55" s="62"/>
@@ -13042,10 +13039,10 @@
         <v>87</v>
       </c>
       <c r="B56" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="C56" s="62" t="s">
         <v>441</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>442</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="62"/>
@@ -13076,10 +13073,10 @@
         <v>102</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -13087,10 +13084,10 @@
         <v>102</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -13098,10 +13095,10 @@
         <v>102</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -13109,10 +13106,10 @@
         <v>102</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
@@ -13121,10 +13118,10 @@
         <v>133</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -13132,10 +13129,10 @@
         <v>133</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -13143,10 +13140,10 @@
         <v>133</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -13155,10 +13152,10 @@
         <v>125</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -13166,10 +13163,10 @@
         <v>125</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -13177,10 +13174,10 @@
         <v>125</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -13193,10 +13190,10 @@
         <v>141</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -13204,10 +13201,10 @@
         <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -13216,10 +13213,10 @@
         <v>149</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -13227,10 +13224,10 @@
         <v>149</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -13239,10 +13236,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -13250,10 +13247,10 @@
         <v>163</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -13261,10 +13258,10 @@
         <v>163</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -13272,10 +13269,10 @@
         <v>163</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -13283,10 +13280,10 @@
         <v>163</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -13294,10 +13291,10 @@
         <v>163</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -13305,10 +13302,10 @@
         <v>163</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -13316,10 +13313,10 @@
         <v>163</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -13327,10 +13324,10 @@
         <v>163</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -13338,110 +13335,110 @@
         <v>163</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -13452,10 +13449,10 @@
         <v>216</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -13463,10 +13460,10 @@
         <v>216</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -13474,10 +13471,10 @@
         <v>216</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -13501,10 +13498,10 @@
         <v>220</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -13512,10 +13509,10 @@
         <v>220</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -13536,76 +13533,76 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="71" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>518</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>306</v>
@@ -13618,43 +13615,43 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="71" t="s">
+        <v>520</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="9" t="s">
         <v>522</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>306</v>
@@ -13667,7 +13664,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" s="71" t="s">
         <v>295</v>
@@ -13678,10 +13675,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="71" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" s="71" t="s">
         <v>529</v>
-      </c>
-      <c r="B121" s="71" t="s">
-        <v>530</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>298</v>
@@ -13689,7 +13686,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B122" s="71" t="s">
         <v>299</v>
@@ -13700,10 +13697,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B123" s="71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>302</v>
@@ -13711,7 +13708,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>303</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>305</v>
@@ -13733,13 +13730,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -13868,25 +13865,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="65" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="E1" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="G1" s="77" t="s">
         <v>539</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>540</v>
       </c>
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
@@ -13910,24 +13907,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="78" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>541</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>542</v>
       </c>
       <c r="C2" s="79" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-11_16-45</v>
+        <v>2020-12-14_12-44</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>310</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -14253,7 +14250,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>1</v>
@@ -14296,13 +14293,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -14327,13 +14324,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>370</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>371</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -14383,13 +14380,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>545</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>546</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
@@ -14414,13 +14411,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>547</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>548</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -14445,13 +14442,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>549</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>550</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -14476,13 +14473,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="68" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>551</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>552</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -14507,13 +14504,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B9" s="68" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>553</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>554</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -14563,13 +14560,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="68" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>555</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="C11" s="68" t="s">
         <v>556</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>557</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -14594,13 +14591,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>558</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>559</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -14625,13 +14622,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>560</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>561</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -14656,13 +14653,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B14" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>562</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>563</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -14687,13 +14684,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B15" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>564</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>565</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -14718,13 +14715,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B16" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>566</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>567</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -14774,13 +14771,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B18" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>556</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>557</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -14805,13 +14802,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B19" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>558</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>559</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -14836,13 +14833,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B20" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" s="68" t="s">
         <v>560</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>561</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -14867,13 +14864,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B21" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>562</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>563</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -14898,13 +14895,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B22" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>566</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>567</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -14929,13 +14926,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="C23" s="68" t="s">
         <v>569</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>570</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -14985,13 +14982,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B25" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="68" t="s">
         <v>397</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>398</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -15016,13 +15013,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B26" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="68" t="s">
         <v>399</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>400</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -15047,13 +15044,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B27" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" s="68" t="s">
         <v>401</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>402</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -15078,13 +15075,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="B28" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="C28" s="68" t="s">
         <v>572</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>573</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -15109,10 +15106,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C29" s="68" t="s">
         <v>306</v>
@@ -15165,13 +15162,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="B31" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="B31" s="68" t="s">
-        <v>576</v>
-      </c>
       <c r="C31" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -15196,13 +15193,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -15252,118 +15249,118 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C43" t="s">
         <v>306</v>
@@ -15377,26 +15374,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -15407,13 +15404,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="89" t="s">
+        <v>590</v>
+      </c>
+      <c r="B48" s="89" t="s">
         <v>591</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="C48" s="89" t="s">
         <v>592</v>
-      </c>
-      <c r="C48" s="89" t="s">
-        <v>593</v>
       </c>
       <c r="D48" s="89"/>
       <c r="E48" s="89"/>
@@ -15438,13 +15435,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="89" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
@@ -15470,65 +15467,65 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>594</v>
+      </c>
+      <c r="B51" t="s">
         <v>595</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>596</v>
-      </c>
-      <c r="C51" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" t="s">
         <v>598</v>
-      </c>
-      <c r="C52" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B53" t="s">
+        <v>599</v>
+      </c>
+      <c r="C53" t="s">
         <v>600</v>
-      </c>
-      <c r="C53" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B54" t="s">
+        <v>601</v>
+      </c>
+      <c r="C54" t="s">
         <v>602</v>
-      </c>
-      <c r="C54" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B55" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" t="s">
         <v>604</v>
-      </c>
-      <c r="C55" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C56" t="s">
         <v>306</v>
@@ -15537,43 +15534,43 @@
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="B58" s="89" t="s">
         <v>606</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="C58" s="89" t="s">
         <v>607</v>
-      </c>
-      <c r="C58" s="89" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B59" s="89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C59" s="89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B60" s="89" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="89" t="s">
         <v>610</v>
-      </c>
-      <c r="C60" s="89" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C61" s="89" t="s">
         <v>306</v>
@@ -15582,111 +15579,111 @@
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="62" t="s">
+        <v>611</v>
+      </c>
+      <c r="B63" s="62" t="s">
         <v>612</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="C63" s="89" t="s">
         <v>613</v>
-      </c>
-      <c r="C63" s="89" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B64" s="62" t="s">
+        <v>614</v>
+      </c>
+      <c r="C64" s="89" t="s">
         <v>615</v>
-      </c>
-      <c r="C64" s="89" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B65" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="C65" s="89" t="s">
         <v>617</v>
-      </c>
-      <c r="C65" s="89" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B66" s="62" t="s">
+        <v>618</v>
+      </c>
+      <c r="C66" s="89" t="s">
         <v>619</v>
-      </c>
-      <c r="C66" s="89" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B67" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="89" t="s">
         <v>405</v>
-      </c>
-      <c r="C67" s="89" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
+        <v>620</v>
+      </c>
+      <c r="B69" t="s">
         <v>621</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>622</v>
-      </c>
-      <c r="C69" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B70" t="s">
+        <v>623</v>
+      </c>
+      <c r="C70" t="s">
         <v>624</v>
-      </c>
-      <c r="C70" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
+        <v>625</v>
+      </c>
+      <c r="B72" t="s">
         <v>626</v>
       </c>
-      <c r="B72" t="s">
-        <v>627</v>
-      </c>
       <c r="C72" s="90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B73" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" t="s">
         <v>628</v>
-      </c>
-      <c r="C73" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B74" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C74" t="s">
         <v>306</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="630">
   <si>
     <t>type</t>
   </si>
@@ -977,7 +977,7 @@
     <t>Click the Submit button at the bottom of the form.</t>
   </si>
   <si>
-    <t>h4 center</t>
+    <t>h2</t>
   </si>
   <si>
     <t>Immunization and Growth monitoring&lt;i class="fa fa-calendar-check-o"&gt;&lt;/i&gt;</t>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>selected(${vaccines}, 'bcg') and selected(${attend_clinic}, 'yes')</t>
+  </si>
+  <si>
+    <t>li</t>
   </si>
   <si>
     <t>Oral Polio Vaccine received</t>
@@ -2112,7 +2115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2252,6 +2255,9 @@
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -9669,7 +9675,7 @@
       <c r="I160" s="49"/>
       <c r="J160" s="49"/>
       <c r="K160" s="49"/>
-      <c r="L160" s="48" t="s">
+      <c r="L160" s="56" t="s">
         <v>318</v>
       </c>
       <c r="M160" s="49"/>
@@ -10091,7 +10097,9 @@
       <c r="K169" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="L169" s="48"/>
+      <c r="L169" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M169" s="49"/>
       <c r="N169" s="49"/>
       <c r="O169" s="49"/>
@@ -10125,7 +10133,7 @@
       </c>
       <c r="B170" s="48"/>
       <c r="C170" s="48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D170" s="49"/>
       <c r="E170" s="50"/>
@@ -10135,9 +10143,11 @@
       <c r="I170" s="49"/>
       <c r="J170" s="49"/>
       <c r="K170" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="L170" s="48"/>
+        <v>334</v>
+      </c>
+      <c r="L170" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M170" s="49"/>
       <c r="N170" s="49"/>
       <c r="O170" s="49"/>
@@ -10171,7 +10181,7 @@
       </c>
       <c r="B171" s="48"/>
       <c r="C171" s="48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D171" s="49"/>
       <c r="E171" s="50"/>
@@ -10181,9 +10191,11 @@
       <c r="I171" s="49"/>
       <c r="J171" s="49"/>
       <c r="K171" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="L171" s="48"/>
+        <v>336</v>
+      </c>
+      <c r="L171" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M171" s="49"/>
       <c r="N171" s="49"/>
       <c r="O171" s="49"/>
@@ -10217,7 +10229,7 @@
       </c>
       <c r="B172" s="48"/>
       <c r="C172" s="48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="50"/>
@@ -10227,9 +10239,11 @@
       <c r="I172" s="49"/>
       <c r="J172" s="49"/>
       <c r="K172" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="L172" s="48"/>
+        <v>338</v>
+      </c>
+      <c r="L172" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M172" s="49"/>
       <c r="N172" s="49"/>
       <c r="O172" s="49"/>
@@ -10263,7 +10277,7 @@
       </c>
       <c r="B173" s="48"/>
       <c r="C173" s="48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="50"/>
@@ -10273,9 +10287,11 @@
       <c r="I173" s="49"/>
       <c r="J173" s="49"/>
       <c r="K173" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L173" s="48"/>
+        <v>340</v>
+      </c>
+      <c r="L173" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M173" s="49"/>
       <c r="N173" s="49"/>
       <c r="O173" s="49"/>
@@ -10309,7 +10325,7 @@
       </c>
       <c r="B174" s="48"/>
       <c r="C174" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="50"/>
@@ -10319,9 +10335,11 @@
       <c r="I174" s="49"/>
       <c r="J174" s="49"/>
       <c r="K174" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="L174" s="48"/>
+        <v>342</v>
+      </c>
+      <c r="L174" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M174" s="49"/>
       <c r="N174" s="49"/>
       <c r="O174" s="49"/>
@@ -10355,7 +10373,7 @@
       </c>
       <c r="B175" s="48"/>
       <c r="C175" s="48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="50"/>
@@ -10365,9 +10383,11 @@
       <c r="I175" s="49"/>
       <c r="J175" s="49"/>
       <c r="K175" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="L175" s="48"/>
+        <v>344</v>
+      </c>
+      <c r="L175" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M175" s="49"/>
       <c r="N175" s="49"/>
       <c r="O175" s="49"/>
@@ -10401,7 +10421,7 @@
       </c>
       <c r="B176" s="48"/>
       <c r="C176" s="48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="50"/>
@@ -10411,9 +10431,11 @@
       <c r="I176" s="49"/>
       <c r="J176" s="49"/>
       <c r="K176" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="L176" s="48"/>
+        <v>346</v>
+      </c>
+      <c r="L176" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M176" s="49"/>
       <c r="N176" s="49"/>
       <c r="O176" s="49"/>
@@ -10447,7 +10469,7 @@
       </c>
       <c r="B177" s="48"/>
       <c r="C177" s="48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D177" s="49"/>
       <c r="E177" s="50"/>
@@ -10457,9 +10479,11 @@
       <c r="I177" s="49"/>
       <c r="J177" s="49"/>
       <c r="K177" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="L177" s="48"/>
+        <v>348</v>
+      </c>
+      <c r="L177" s="48" t="s">
+        <v>332</v>
+      </c>
       <c r="M177" s="49"/>
       <c r="N177" s="49"/>
       <c r="O177" s="49"/>
@@ -10493,7 +10517,7 @@
       </c>
       <c r="B178" s="52"/>
       <c r="C178" s="52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D178" s="53"/>
       <c r="E178" s="54"/>
@@ -10503,7 +10527,7 @@
       <c r="I178" s="53"/>
       <c r="J178" s="53"/>
       <c r="K178" s="52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L178" s="52" t="s">
         <v>320</v>
@@ -10541,7 +10565,7 @@
       </c>
       <c r="B179" s="48"/>
       <c r="C179" s="48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D179" s="49"/>
       <c r="E179" s="50"/>
@@ -10589,7 +10613,7 @@
       </c>
       <c r="B180" s="48"/>
       <c r="C180" s="48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D180" s="49"/>
       <c r="E180" s="50"/>
@@ -10636,8 +10660,8 @@
         <v>186</v>
       </c>
       <c r="B181" s="52"/>
-      <c r="C181" s="56" t="s">
-        <v>352</v>
+      <c r="C181" s="57" t="s">
+        <v>353</v>
       </c>
       <c r="D181" s="53"/>
       <c r="E181" s="54"/>
@@ -10647,10 +10671,10 @@
       <c r="I181" s="53"/>
       <c r="J181" s="53"/>
       <c r="K181" s="52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L181" s="52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M181" s="53"/>
       <c r="N181" s="53"/>
@@ -10684,8 +10708,8 @@
         <v>186</v>
       </c>
       <c r="B182" s="48"/>
-      <c r="C182" s="57" t="s">
-        <v>355</v>
+      <c r="C182" s="58" t="s">
+        <v>356</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="50"/>
@@ -10730,8 +10754,8 @@
         <v>186</v>
       </c>
       <c r="B183" s="48"/>
-      <c r="C183" s="58" t="s">
-        <v>356</v>
+      <c r="C183" s="59" t="s">
+        <v>357</v>
       </c>
       <c r="D183" s="49"/>
       <c r="E183" s="50"/>
@@ -10741,7 +10765,7 @@
       <c r="I183" s="49"/>
       <c r="J183" s="49"/>
       <c r="K183" s="48" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L183" s="48"/>
       <c r="M183" s="49"/>
@@ -10776,8 +10800,8 @@
         <v>186</v>
       </c>
       <c r="B184" s="48"/>
-      <c r="C184" s="58" t="s">
-        <v>358</v>
+      <c r="C184" s="59" t="s">
+        <v>359</v>
       </c>
       <c r="D184" s="49"/>
       <c r="E184" s="50"/>
@@ -10787,7 +10811,7 @@
       <c r="I184" s="49"/>
       <c r="J184" s="49"/>
       <c r="K184" s="48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L184" s="48"/>
       <c r="M184" s="49"/>
@@ -10823,7 +10847,7 @@
       </c>
       <c r="B185" s="52"/>
       <c r="C185" s="52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D185" s="53"/>
       <c r="E185" s="54"/>
@@ -10833,10 +10857,10 @@
       <c r="I185" s="53"/>
       <c r="J185" s="53"/>
       <c r="K185" s="48" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L185" s="52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M185" s="53"/>
       <c r="N185" s="53"/>
@@ -10870,8 +10894,8 @@
         <v>186</v>
       </c>
       <c r="B186" s="48"/>
-      <c r="C186" s="58" t="s">
-        <v>363</v>
+      <c r="C186" s="59" t="s">
+        <v>364</v>
       </c>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
@@ -10880,7 +10904,7 @@
       <c r="H186" s="49"/>
       <c r="I186" s="49"/>
       <c r="J186" s="49"/>
-      <c r="K186" s="59" t="s">
+      <c r="K186" s="60" t="s">
         <v>89</v>
       </c>
       <c r="L186" s="48"/>
@@ -10905,19 +10929,19 @@
       <c r="AE186" s="49"/>
       <c r="AF186" s="49"/>
       <c r="AG186" s="49"/>
-      <c r="AH186" s="60"/>
-      <c r="AI186" s="60"/>
-      <c r="AJ186" s="60"/>
-      <c r="AK186" s="60"/>
-      <c r="AL186" s="60"/>
+      <c r="AH186" s="61"/>
+      <c r="AI186" s="61"/>
+      <c r="AJ186" s="61"/>
+      <c r="AK186" s="61"/>
+      <c r="AL186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="48" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="48"/>
-      <c r="C187" s="57" t="s">
-        <v>364</v>
+      <c r="C187" s="58" t="s">
+        <v>365</v>
       </c>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
@@ -10926,8 +10950,8 @@
       <c r="H187" s="49"/>
       <c r="I187" s="49"/>
       <c r="J187" s="49"/>
-      <c r="K187" s="61" t="s">
-        <v>357</v>
+      <c r="K187" s="62" t="s">
+        <v>358</v>
       </c>
       <c r="L187" s="48"/>
       <c r="M187" s="49"/>
@@ -10951,19 +10975,19 @@
       <c r="AE187" s="49"/>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
-      <c r="AH187" s="60"/>
-      <c r="AI187" s="60"/>
-      <c r="AJ187" s="60"/>
-      <c r="AK187" s="60"/>
-      <c r="AL187" s="60"/>
+      <c r="AH187" s="61"/>
+      <c r="AI187" s="61"/>
+      <c r="AJ187" s="61"/>
+      <c r="AK187" s="61"/>
+      <c r="AL187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="48" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="48"/>
-      <c r="C188" s="57" t="s">
-        <v>364</v>
+      <c r="C188" s="58" t="s">
+        <v>365</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -10997,19 +11021,19 @@
       <c r="AE188" s="49"/>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
-      <c r="AH188" s="60"/>
-      <c r="AI188" s="60"/>
-      <c r="AJ188" s="60"/>
-      <c r="AK188" s="60"/>
-      <c r="AL188" s="60"/>
+      <c r="AH188" s="61"/>
+      <c r="AI188" s="61"/>
+      <c r="AJ188" s="61"/>
+      <c r="AK188" s="61"/>
+      <c r="AL188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="48" t="s">
         <v>186</v>
       </c>
       <c r="B189" s="48"/>
-      <c r="C189" s="58" t="s">
-        <v>365</v>
+      <c r="C189" s="59" t="s">
+        <v>366</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -11019,7 +11043,7 @@
       <c r="I189" s="49"/>
       <c r="J189" s="49"/>
       <c r="K189" s="49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L189" s="50"/>
       <c r="M189" s="49"/>
@@ -11043,11 +11067,11 @@
       <c r="AE189" s="49"/>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
-      <c r="AH189" s="60"/>
-      <c r="AI189" s="60"/>
-      <c r="AJ189" s="60"/>
-      <c r="AK189" s="60"/>
-      <c r="AL189" s="60"/>
+      <c r="AH189" s="61"/>
+      <c r="AI189" s="61"/>
+      <c r="AJ189" s="61"/>
+      <c r="AK189" s="61"/>
+      <c r="AL189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="48" t="s">
@@ -11087,70 +11111,70 @@
       <c r="AE190" s="49"/>
       <c r="AF190" s="49"/>
       <c r="AG190" s="49"/>
-      <c r="AH190" s="60"/>
-      <c r="AI190" s="60"/>
-      <c r="AJ190" s="60"/>
-      <c r="AK190" s="60"/>
-      <c r="AL190" s="60"/>
+      <c r="AH190" s="61"/>
+      <c r="AI190" s="61"/>
+      <c r="AJ190" s="61"/>
+      <c r="AK190" s="61"/>
+      <c r="AL190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="AH191" s="62"/>
-      <c r="AI191" s="62"/>
-      <c r="AJ191" s="62"/>
-      <c r="AK191" s="62"/>
-      <c r="AL191" s="62"/>
+      <c r="AH191" s="63"/>
+      <c r="AI191" s="63"/>
+      <c r="AJ191" s="63"/>
+      <c r="AK191" s="63"/>
+      <c r="AL191" s="63"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="AH192" s="62"/>
-      <c r="AI192" s="62"/>
-      <c r="AJ192" s="62"/>
-      <c r="AK192" s="62"/>
-      <c r="AL192" s="62"/>
+      <c r="AH192" s="63"/>
+      <c r="AI192" s="63"/>
+      <c r="AJ192" s="63"/>
+      <c r="AK192" s="63"/>
+      <c r="AL192" s="63"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="AF193" s="37"/>
-      <c r="AH193" s="62"/>
-      <c r="AI193" s="62"/>
-      <c r="AJ193" s="62"/>
-      <c r="AK193" s="62"/>
-      <c r="AL193" s="62"/>
+      <c r="AH193" s="63"/>
+      <c r="AI193" s="63"/>
+      <c r="AJ193" s="63"/>
+      <c r="AK193" s="63"/>
+      <c r="AL193" s="63"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="AH194" s="62"/>
-      <c r="AI194" s="62"/>
-      <c r="AJ194" s="62"/>
-      <c r="AK194" s="62"/>
-      <c r="AL194" s="62"/>
+      <c r="AH194" s="63"/>
+      <c r="AI194" s="63"/>
+      <c r="AJ194" s="63"/>
+      <c r="AK194" s="63"/>
+      <c r="AL194" s="63"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="L195" s="37"/>
-      <c r="AH195" s="62"/>
-      <c r="AI195" s="62"/>
-      <c r="AJ195" s="62"/>
-      <c r="AK195" s="62"/>
-      <c r="AL195" s="62"/>
+      <c r="AH195" s="63"/>
+      <c r="AI195" s="63"/>
+      <c r="AJ195" s="63"/>
+      <c r="AK195" s="63"/>
+      <c r="AL195" s="63"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="AH196" s="62"/>
-      <c r="AI196" s="62"/>
-      <c r="AJ196" s="62"/>
-      <c r="AK196" s="62"/>
-      <c r="AL196" s="62"/>
+      <c r="AH196" s="63"/>
+      <c r="AI196" s="63"/>
+      <c r="AJ196" s="63"/>
+      <c r="AK196" s="63"/>
+      <c r="AL196" s="63"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="AH197" s="62"/>
-      <c r="AI197" s="62"/>
-      <c r="AJ197" s="62"/>
-      <c r="AK197" s="62"/>
-      <c r="AL197" s="62"/>
+      <c r="AH197" s="63"/>
+      <c r="AI197" s="63"/>
+      <c r="AJ197" s="63"/>
+      <c r="AK197" s="63"/>
+      <c r="AL197" s="63"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="AF198" s="37"/>
-      <c r="AH198" s="62"/>
-      <c r="AI198" s="62"/>
-      <c r="AJ198" s="62"/>
-      <c r="AK198" s="62"/>
-      <c r="AL198" s="62"/>
+      <c r="AH198" s="63"/>
+      <c r="AI198" s="63"/>
+      <c r="AJ198" s="63"/>
+      <c r="AK198" s="63"/>
+      <c r="AL198" s="63"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="L199" s="37"/>
@@ -11211,11 +11235,11 @@
       <c r="AL200" s="40"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="AH201" s="63"/>
-      <c r="AI201" s="63"/>
-      <c r="AJ201" s="63"/>
-      <c r="AK201" s="63"/>
-      <c r="AL201" s="63"/>
+      <c r="AH201" s="64"/>
+      <c r="AI201" s="64"/>
+      <c r="AJ201" s="64"/>
+      <c r="AK201" s="64"/>
+      <c r="AL201" s="64"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="L202" s="37"/>
@@ -11240,11 +11264,11 @@
       <c r="AE202" s="37"/>
       <c r="AF202" s="37"/>
       <c r="AG202" s="37"/>
-      <c r="AH202" s="64"/>
-      <c r="AI202" s="64"/>
-      <c r="AJ202" s="64"/>
-      <c r="AK202" s="64"/>
-      <c r="AL202" s="64"/>
+      <c r="AH202" s="65"/>
+      <c r="AI202" s="65"/>
+      <c r="AJ202" s="65"/>
+      <c r="AK202" s="65"/>
+      <c r="AL202" s="65"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="L203" s="37"/>
@@ -11269,11 +11293,11 @@
       <c r="AE203" s="37"/>
       <c r="AF203" s="37"/>
       <c r="AG203" s="37"/>
-      <c r="AH203" s="64"/>
-      <c r="AI203" s="64"/>
-      <c r="AJ203" s="64"/>
-      <c r="AK203" s="64"/>
-      <c r="AL203" s="64"/>
+      <c r="AH203" s="65"/>
+      <c r="AI203" s="65"/>
+      <c r="AJ203" s="65"/>
+      <c r="AK203" s="65"/>
+      <c r="AL203" s="65"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="L204" s="37"/>
@@ -11298,11 +11322,11 @@
       <c r="AE204" s="37"/>
       <c r="AF204" s="37"/>
       <c r="AG204" s="37"/>
-      <c r="AH204" s="64"/>
-      <c r="AI204" s="64"/>
-      <c r="AJ204" s="64"/>
-      <c r="AK204" s="64"/>
-      <c r="AL204" s="64"/>
+      <c r="AH204" s="65"/>
+      <c r="AI204" s="65"/>
+      <c r="AJ204" s="65"/>
+      <c r="AK204" s="65"/>
+      <c r="AL204" s="65"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="L205" s="37"/>
@@ -11327,11 +11351,11 @@
       <c r="AE205" s="37"/>
       <c r="AF205" s="37"/>
       <c r="AG205" s="37"/>
-      <c r="AH205" s="64"/>
-      <c r="AI205" s="64"/>
-      <c r="AJ205" s="64"/>
-      <c r="AK205" s="64"/>
-      <c r="AL205" s="64"/>
+      <c r="AH205" s="65"/>
+      <c r="AI205" s="65"/>
+      <c r="AJ205" s="65"/>
+      <c r="AK205" s="65"/>
+      <c r="AL205" s="65"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="L206" s="37"/>
@@ -11356,11 +11380,11 @@
       <c r="AE206" s="37"/>
       <c r="AF206" s="37"/>
       <c r="AG206" s="37"/>
-      <c r="AH206" s="64"/>
-      <c r="AI206" s="64"/>
-      <c r="AJ206" s="64"/>
-      <c r="AK206" s="64"/>
-      <c r="AL206" s="64"/>
+      <c r="AH206" s="65"/>
+      <c r="AI206" s="65"/>
+      <c r="AJ206" s="65"/>
+      <c r="AK206" s="65"/>
+      <c r="AL206" s="65"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="L207" s="37"/>
@@ -11385,11 +11409,11 @@
       <c r="AE207" s="37"/>
       <c r="AF207" s="37"/>
       <c r="AG207" s="37"/>
-      <c r="AH207" s="64"/>
-      <c r="AI207" s="64"/>
-      <c r="AJ207" s="64"/>
-      <c r="AK207" s="64"/>
-      <c r="AL207" s="64"/>
+      <c r="AH207" s="65"/>
+      <c r="AI207" s="65"/>
+      <c r="AJ207" s="65"/>
+      <c r="AK207" s="65"/>
+      <c r="AL207" s="65"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="L208" s="37"/>
@@ -11414,11 +11438,11 @@
       <c r="AE208" s="37"/>
       <c r="AF208" s="37"/>
       <c r="AG208" s="37"/>
-      <c r="AH208" s="64"/>
-      <c r="AI208" s="64"/>
-      <c r="AJ208" s="64"/>
-      <c r="AK208" s="64"/>
-      <c r="AL208" s="64"/>
+      <c r="AH208" s="65"/>
+      <c r="AI208" s="65"/>
+      <c r="AJ208" s="65"/>
+      <c r="AK208" s="65"/>
+      <c r="AL208" s="65"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="37"/>
@@ -11450,11 +11474,11 @@
       <c r="AE209" s="37"/>
       <c r="AF209" s="37"/>
       <c r="AG209" s="37"/>
-      <c r="AH209" s="64"/>
-      <c r="AI209" s="64"/>
-      <c r="AJ209" s="64"/>
-      <c r="AK209" s="64"/>
-      <c r="AL209" s="64"/>
+      <c r="AH209" s="65"/>
+      <c r="AI209" s="65"/>
+      <c r="AJ209" s="65"/>
+      <c r="AK209" s="65"/>
+      <c r="AL209" s="65"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="37"/>
@@ -11486,11 +11510,11 @@
       <c r="AE210" s="37"/>
       <c r="AF210" s="37"/>
       <c r="AG210" s="37"/>
-      <c r="AH210" s="64"/>
-      <c r="AI210" s="64"/>
-      <c r="AJ210" s="64"/>
-      <c r="AK210" s="64"/>
-      <c r="AL210" s="64"/>
+      <c r="AH210" s="65"/>
+      <c r="AI210" s="65"/>
+      <c r="AJ210" s="65"/>
+      <c r="AK210" s="65"/>
+      <c r="AL210" s="65"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="37"/>
@@ -11522,11 +11546,11 @@
       <c r="AE211" s="37"/>
       <c r="AF211" s="37"/>
       <c r="AG211" s="37"/>
-      <c r="AH211" s="64"/>
-      <c r="AI211" s="64"/>
-      <c r="AJ211" s="64"/>
-      <c r="AK211" s="64"/>
-      <c r="AL211" s="64"/>
+      <c r="AH211" s="65"/>
+      <c r="AI211" s="65"/>
+      <c r="AJ211" s="65"/>
+      <c r="AK211" s="65"/>
+      <c r="AL211" s="65"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="37"/>
@@ -11558,11 +11582,11 @@
       <c r="AE212" s="37"/>
       <c r="AF212" s="37"/>
       <c r="AG212" s="37"/>
-      <c r="AH212" s="64"/>
-      <c r="AI212" s="64"/>
-      <c r="AJ212" s="64"/>
-      <c r="AK212" s="64"/>
-      <c r="AL212" s="64"/>
+      <c r="AH212" s="65"/>
+      <c r="AI212" s="65"/>
+      <c r="AJ212" s="65"/>
+      <c r="AK212" s="65"/>
+      <c r="AL212" s="65"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -11592,1524 +11616,1524 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
+      <c r="C3" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="C5" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
+      <c r="C6" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="67" t="s">
+      <c r="A7" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="A8" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
+      <c r="C8" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="67" t="s">
-        <v>380</v>
-      </c>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
+      <c r="C10" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="67" t="s">
-        <v>380</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
+      <c r="C11" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="70" t="s">
-        <v>385</v>
+      <c r="A13" s="71" t="s">
+        <v>386</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="70" t="s">
-        <v>385</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
+      <c r="C14" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="70" t="s">
-        <v>385</v>
+      <c r="A15" s="71" t="s">
+        <v>386</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
+      <c r="C15" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="70" t="s">
-        <v>392</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="70" t="s">
+      <c r="A17" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
+      <c r="B17" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="70" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
+      <c r="C18" s="71" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="69" t="s">
         <v>397</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
+      <c r="C20" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" s="68" t="s">
+      <c r="C30" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B23" s="70" t="s">
+      <c r="C31" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="C32" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="70" t="s">
+      <c r="C33" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>409</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>410</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>411</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B39" s="9">
         <v>3.0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B40" s="9">
         <v>7.0</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B41" s="9">
         <v>13.0</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B42" s="9">
         <v>14.0</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="B45" s="74" t="s">
+      <c r="A45" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="B45" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
+      <c r="C45" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="75" t="s">
-        <v>424</v>
-      </c>
-      <c r="B46" s="75" t="s">
+      <c r="A46" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="75" t="s">
-        <v>427</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
+      <c r="C46" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="C48" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C49" s="62" t="s">
+      <c r="B49" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="C50" s="62" t="s">
+      <c r="B50" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
+      <c r="C50" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
+      <c r="C51" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="C52" s="62" t="s">
+      <c r="B52" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C52" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="C53" s="62" t="s">
+      <c r="B53" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="63"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C54" s="62" t="s">
+      <c r="B54" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
+      <c r="C54" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C55" s="62" t="s">
+      <c r="B55" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="62"/>
+      <c r="C55" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="63"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="67" t="s">
-        <v>440</v>
-      </c>
-      <c r="C56" s="62" t="s">
+      <c r="B56" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
+      <c r="C56" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="63"/>
+      <c r="Y56" s="63"/>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="77" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="77" t="s">
         <v>102</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="77" t="s">
         <v>102</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="77" t="s">
         <v>102</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
@@ -13118,10 +13142,10 @@
         <v>133</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -13129,10 +13153,10 @@
         <v>133</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -13140,44 +13164,44 @@
         <v>133</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="77" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -13190,10 +13214,10 @@
         <v>141</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -13201,10 +13225,10 @@
         <v>141</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -13213,10 +13237,10 @@
         <v>149</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -13224,10 +13248,10 @@
         <v>149</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -13236,10 +13260,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -13247,10 +13271,10 @@
         <v>163</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -13258,10 +13282,10 @@
         <v>163</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -13269,10 +13293,10 @@
         <v>163</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -13280,10 +13304,10 @@
         <v>163</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -13291,10 +13315,10 @@
         <v>163</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -13302,10 +13326,10 @@
         <v>163</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -13313,10 +13337,10 @@
         <v>163</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -13324,10 +13348,10 @@
         <v>163</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -13335,150 +13359,150 @@
         <v>163</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="71"/>
+      <c r="A97" s="72"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="71" t="s">
+      <c r="A98" s="72" t="s">
         <v>216</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="72" t="s">
         <v>216</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="72" t="s">
         <v>216</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="72" t="s">
         <v>216</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -13489,34 +13513,34 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="71"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="71" t="s">
+      <c r="A103" s="72" t="s">
         <v>220</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="72" t="s">
         <v>220</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="72" t="s">
         <v>220</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -13527,146 +13551,146 @@
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="71"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="71" t="s">
-        <v>506</v>
+      <c r="A107" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="71" t="s">
-        <v>506</v>
-      </c>
       <c r="B108" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="71" t="s">
-        <v>506</v>
+      <c r="A109" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="71" t="s">
-        <v>506</v>
+      <c r="A110" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="71" t="s">
-        <v>506</v>
+      <c r="A111" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="71" t="s">
-        <v>506</v>
+      <c r="A112" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="71" t="s">
-        <v>506</v>
+      <c r="A113" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="71"/>
+      <c r="A114" s="72"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="71" t="s">
-        <v>520</v>
+      <c r="A115" s="72" t="s">
+        <v>521</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="71" t="s">
-        <v>520</v>
-      </c>
       <c r="B116" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="71" t="s">
-        <v>520</v>
+      <c r="A117" s="72" t="s">
+        <v>521</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="71" t="s">
-        <v>520</v>
+      <c r="A118" s="72" t="s">
+        <v>521</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="71"/>
+      <c r="A119" s="72"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B120" s="71" t="s">
+      <c r="A120" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" s="72" t="s">
         <v>295</v>
       </c>
       <c r="C120" s="9" t="s">
@@ -13674,21 +13698,21 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B121" s="71" t="s">
+      <c r="A121" s="72" t="s">
         <v>529</v>
+      </c>
+      <c r="B121" s="72" t="s">
+        <v>530</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B122" s="71" t="s">
+      <c r="A122" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="72" t="s">
         <v>299</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -13696,19 +13720,19 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B123" s="71" t="s">
-        <v>530</v>
+      <c r="A123" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B123" s="72" t="s">
+        <v>531</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="71" t="s">
-        <v>528</v>
+      <c r="A124" s="72" t="s">
+        <v>529</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>303</v>
@@ -13718,8 +13742,8 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="71" t="s">
-        <v>528</v>
+      <c r="A125" s="72" t="s">
+        <v>529</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>305</v>
@@ -13729,113 +13753,113 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="71" t="s">
-        <v>528</v>
+      <c r="A126" s="72" t="s">
+        <v>529</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="71"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="71"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="71"/>
+      <c r="A129" s="72"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="71"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="71"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="71"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="71"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="71"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="71"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="71"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="71"/>
+      <c r="A137" s="72"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="71"/>
+      <c r="A138" s="72"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="71"/>
+      <c r="A139" s="72"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="71"/>
+      <c r="A140" s="72"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="71"/>
+      <c r="A141" s="72"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="71"/>
+      <c r="A142" s="72"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="71"/>
+      <c r="A143" s="72"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="71"/>
+      <c r="A144" s="72"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="71"/>
+      <c r="A145" s="72"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="71"/>
+      <c r="A146" s="72"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
     </row>
@@ -13864,367 +13888,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>534</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="G1" s="78" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="79" t="str">
+      <c r="B2" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-14_12-44</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>542</v>
-      </c>
-      <c r="E2" s="80" t="s">
+        <v>2020-12-15_15-50</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14249,1118 +14273,1118 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>572</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>573</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>574</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="69" t="s">
+        <v>575</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>544</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>548</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>549</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>550</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>551</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>552</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>553</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>555</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>556</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>557</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>558</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>559</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>561</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>562</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>563</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>564</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="68" t="s">
-        <v>554</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>565</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>555</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>556</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>558</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>559</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>560</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>561</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>562</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>565</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>568</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>569</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>397</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>399</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>400</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>571</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>572</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>573</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="68" t="s">
-        <v>574</v>
-      </c>
-      <c r="B31" s="68" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="69" t="s">
         <v>575</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="68" t="s">
-        <v>574</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>576</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
+      <c r="B32" s="69" t="s">
+        <v>577</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B43" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C43" t="s">
         <v>306</v>
@@ -15374,26 +15398,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -15403,129 +15427,129 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="89" t="s">
-        <v>590</v>
-      </c>
-      <c r="B48" s="89" t="s">
+      <c r="A48" s="90" t="s">
         <v>591</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="B48" s="90" t="s">
         <v>592</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
+      <c r="C48" s="90" t="s">
+        <v>593</v>
+      </c>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="89" t="s">
-        <v>590</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>593</v>
-      </c>
-      <c r="C49" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
+      <c r="A49" s="90" t="s">
+        <v>591</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C51" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B52" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C52" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C53" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C54" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C55" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B56" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
         <v>306</v>
@@ -15533,157 +15557,157 @@
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="89" t="s">
-        <v>605</v>
-      </c>
-      <c r="B58" s="89" t="s">
+      <c r="A58" s="90" t="s">
         <v>606</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="B58" s="90" t="s">
         <v>607</v>
       </c>
+      <c r="C58" s="90" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="89" t="s">
-        <v>605</v>
-      </c>
-      <c r="B59" s="89" t="s">
-        <v>608</v>
-      </c>
-      <c r="C59" s="89" t="s">
-        <v>524</v>
+      <c r="A59" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="B59" s="90" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="89" t="s">
-        <v>605</v>
-      </c>
-      <c r="B60" s="89" t="s">
-        <v>609</v>
-      </c>
-      <c r="C60" s="89" t="s">
+      <c r="A60" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="B60" s="90" t="s">
         <v>610</v>
       </c>
+      <c r="C60" s="90" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="89" t="s">
-        <v>605</v>
-      </c>
-      <c r="B61" s="89" t="s">
-        <v>573</v>
-      </c>
-      <c r="C61" s="89" t="s">
+      <c r="A61" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="C61" s="90" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="B63" s="62" t="s">
+      <c r="A63" s="63" t="s">
         <v>612</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="B63" s="63" t="s">
         <v>613</v>
       </c>
+      <c r="C63" s="90" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="C64" s="89" t="s">
+      <c r="A64" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="B64" s="63" t="s">
         <v>615</v>
       </c>
+      <c r="C64" s="90" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>616</v>
-      </c>
-      <c r="C65" s="89" t="s">
+      <c r="A65" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="B65" s="63" t="s">
         <v>617</v>
       </c>
+      <c r="C65" s="90" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>618</v>
-      </c>
-      <c r="C66" s="89" t="s">
+      <c r="A66" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="B66" s="63" t="s">
         <v>619</v>
       </c>
+      <c r="C66" s="90" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="C67" s="89" t="s">
+      <c r="A67" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="B67" s="63" t="s">
         <v>405</v>
+      </c>
+      <c r="C67" s="90" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B69" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C69" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B70" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C70" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
-      </c>
-      <c r="C72" s="90" t="s">
-        <v>588</v>
+        <v>627</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B73" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C73" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B74" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C74" t="s">
         <v>306</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -13938,7 +13938,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-15_15-50</v>
+        <v>2020-12-15_21-23</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>543</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -13938,7 +13938,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-15_21-23</v>
+        <v>2020-12-16_19-49</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>543</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="678">
   <si>
     <t>type</t>
   </si>
@@ -334,7 +334,7 @@
     <t>format-date-time(date-time(floor(decimal-date-time(${missed_vaccine_date})) + 3), "%Y-%m-%d")</t>
   </si>
   <si>
-    <t>vaccines_group</t>
+    <t>g_vaccines</t>
   </si>
   <si>
     <t>Vaccines</t>
@@ -352,7 +352,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>clinic_group</t>
+    <t>g_clinic</t>
   </si>
   <si>
     <t>Clinic Attendance</t>
@@ -367,7 +367,7 @@
     <t>Which vaccines did ${patient_name} receive?</t>
   </si>
   <si>
-    <t>bch_group</t>
+    <t>g_bch</t>
   </si>
   <si>
     <t>BCG</t>
@@ -391,7 +391,7 @@
     <t>Enter a date in the past</t>
   </si>
   <si>
-    <t>opv_group</t>
+    <t>g_opv</t>
   </si>
   <si>
     <t>Oral Polio Vaccine</t>
@@ -445,7 +445,7 @@
     <t>selected(${opv_dose}, 'opv_dose_3')</t>
   </si>
   <si>
-    <t>inactivated_polio_group</t>
+    <t>g_inactivated_polio</t>
   </si>
   <si>
     <t>Inactivated Polio Vaccine (IPV)</t>
@@ -460,7 +460,7 @@
     <t>Enter the Date when Inactivated Polio vaccine (IPV) was given</t>
   </si>
   <si>
-    <t>pentavalent_group</t>
+    <t>g_pentavalent</t>
   </si>
   <si>
     <t>Pentavalent vaccine</t>
@@ -484,7 +484,7 @@
     <t>Enter the date when the Pentavalent last vaccine dose was given</t>
   </si>
   <si>
-    <t>pneumococcal_group</t>
+    <t>g_pneumococcal</t>
   </si>
   <si>
     <t>Pneumococcal (PCV) Vaccine</t>
@@ -508,7 +508,7 @@
     <t>Enter the date when the last Pneumococcal (PCV) was given</t>
   </si>
   <si>
-    <t>rota_virus_group</t>
+    <t>g_rota_virus</t>
   </si>
   <si>
     <t>Rota Virus Vaccine</t>
@@ -532,7 +532,7 @@
     <t>Enter the date when the last Rota Virus Vaccine was given</t>
   </si>
   <si>
-    <t>measles_vaccine</t>
+    <t>g_measles_vaccine</t>
   </si>
   <si>
     <t>Measles Vaccine</t>
@@ -562,7 +562,7 @@
     <t>Enter Date when Rota Virus Vaccine was given</t>
   </si>
   <si>
-    <t>yellow_fever_vaccine</t>
+    <t>g_yellow_fever_vaccine</t>
   </si>
   <si>
     <t>Yellow Fever vaccine</t>
@@ -577,7 +577,7 @@
     <t>Enter the Date when Yellow Fever vaccine was given?</t>
   </si>
   <si>
-    <t>vitamin_a_vaccine</t>
+    <t>g_vitamin_a_vaccine</t>
   </si>
   <si>
     <t>Vitamin A Vaccine</t>
@@ -601,7 +601,7 @@
     <t>Enter the date when the last Vitamin A Vaccine was given</t>
   </si>
   <si>
-    <t>deworming</t>
+    <t>g_deworming</t>
   </si>
   <si>
     <t>Deworming</t>
@@ -640,7 +640,7 @@
     <t>Enter a date in the future</t>
   </si>
   <si>
-    <t>next_appointment</t>
+    <t>g_next_appointment</t>
   </si>
   <si>
     <t>Next Appointment Date</t>
@@ -652,7 +652,7 @@
     <t>When is the child due for the next immunization?</t>
   </si>
   <si>
-    <t>growth_monitoring</t>
+    <t>g_growth_monitoring</t>
   </si>
   <si>
     <t>Growth monitoring</t>
@@ -739,7 +739,7 @@
     <t>selected(${growth_monitoring_other_treatment}, 'yes')</t>
   </si>
   <si>
-    <t>feeding_method</t>
+    <t>g_feeding_method</t>
   </si>
   <si>
     <t>Feeding Method</t>
@@ -775,7 +775,7 @@
     <t>selected(${feeding_method_b}, 'feeding_method_other') or selected(${feeding_method_a}, 'feeding_method_other')</t>
   </si>
   <si>
-    <t>llitn_use</t>
+    <t>g_llitn_use</t>
   </si>
   <si>
     <t>LLITN Use</t>
@@ -796,7 +796,7 @@
     <t>selected(${llitn_use_answer}, 'no')</t>
   </si>
   <si>
-    <t>developmental_milestones</t>
+    <t>g_developmental_milestones</t>
   </si>
   <si>
     <t>Developmental milestones</t>
@@ -926,7 +926,7 @@
     <t>Select the Date the caregiver has agreed to take the child for assessment</t>
   </si>
   <si>
-    <t>missed_vaccine_details</t>
+    <t>g_missed_vaccine_details</t>
   </si>
   <si>
     <t>Missed Vaccine details</t>
@@ -977,10 +977,13 @@
     <t>Select the Date the caregiver has agreed to take the child for the immunization visit</t>
   </si>
   <si>
-    <t>danger_signs</t>
+    <t>g_danger_signs</t>
   </si>
   <si>
     <t>Danger Signs</t>
+  </si>
+  <si>
+    <t>danger_signs_note</t>
   </si>
   <si>
     <t xml:space="preserve">Does ${patient_name} have any of the following danger signs?	</t>
@@ -9417,9 +9420,11 @@
       <c r="A150" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B150" s="17"/>
+      <c r="B150" s="17" t="s">
+        <v>313</v>
+      </c>
       <c r="C150" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
@@ -9464,10 +9469,10 @@
         <v>101</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
@@ -9512,10 +9517,10 @@
         <v>101</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
@@ -9560,10 +9565,10 @@
         <v>101</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
@@ -9608,10 +9613,10 @@
         <v>101</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
@@ -9656,10 +9661,10 @@
         <v>101</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
@@ -9704,10 +9709,10 @@
         <v>101</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -9752,10 +9757,10 @@
         <v>230</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19" t="s">
@@ -9771,7 +9776,7 @@
         <v>104</v>
       </c>
       <c r="K157" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L157" s="22"/>
       <c r="M157" s="33"/>
@@ -9854,7 +9859,7 @@
         <v>34</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C160" s="42" t="s">
         <v>70</v>
@@ -9868,7 +9873,7 @@
       <c r="J160" s="44"/>
       <c r="K160" s="42"/>
       <c r="L160" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M160" s="44"/>
       <c r="N160" s="44"/>
@@ -9904,10 +9909,10 @@
         <v>207</v>
       </c>
       <c r="B161" s="42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D161" s="48"/>
       <c r="E161" s="49"/>
@@ -9918,7 +9923,7 @@
       <c r="J161" s="48"/>
       <c r="K161" s="48"/>
       <c r="L161" s="47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M161" s="48"/>
       <c r="N161" s="48"/>
@@ -9952,10 +9957,10 @@
         <v>207</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D162" s="44"/>
       <c r="E162" s="45"/>
@@ -9966,7 +9971,7 @@
       <c r="J162" s="44"/>
       <c r="K162" s="44"/>
       <c r="L162" s="51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M162" s="44"/>
       <c r="N162" s="44"/>
@@ -10000,10 +10005,10 @@
         <v>207</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D163" s="48"/>
       <c r="E163" s="49"/>
@@ -10014,7 +10019,7 @@
       <c r="J163" s="48"/>
       <c r="K163" s="48"/>
       <c r="L163" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M163" s="48"/>
       <c r="N163" s="48"/>
@@ -10048,10 +10053,10 @@
         <v>207</v>
       </c>
       <c r="B164" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D164" s="48"/>
       <c r="E164" s="49"/>
@@ -10062,7 +10067,7 @@
       <c r="J164" s="48"/>
       <c r="K164" s="48"/>
       <c r="L164" s="47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M164" s="48"/>
       <c r="N164" s="48"/>
@@ -10096,10 +10101,10 @@
         <v>207</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D165" s="44"/>
       <c r="E165" s="45"/>
@@ -10110,7 +10115,7 @@
       <c r="J165" s="44"/>
       <c r="K165" s="45"/>
       <c r="L165" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M165" s="44"/>
       <c r="N165" s="44"/>
@@ -10144,10 +10149,10 @@
         <v>207</v>
       </c>
       <c r="B166" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D166" s="44"/>
       <c r="E166" s="45"/>
@@ -10158,7 +10163,7 @@
       <c r="J166" s="44"/>
       <c r="K166" s="45"/>
       <c r="L166" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M166" s="44"/>
       <c r="N166" s="44"/>
@@ -10192,10 +10197,10 @@
         <v>207</v>
       </c>
       <c r="B167" s="52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D167" s="48"/>
       <c r="E167" s="49"/>
@@ -10206,7 +10211,7 @@
       <c r="J167" s="48"/>
       <c r="K167" s="47"/>
       <c r="L167" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M167" s="48"/>
       <c r="N167" s="47"/>
@@ -10240,10 +10245,10 @@
         <v>207</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D168" s="44"/>
       <c r="E168" s="45"/>
@@ -10256,7 +10261,7 @@
         <v>86</v>
       </c>
       <c r="L168" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M168" s="44"/>
       <c r="N168" s="42"/>
@@ -10290,10 +10295,10 @@
         <v>207</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D169" s="44"/>
       <c r="E169" s="45"/>
@@ -10306,7 +10311,7 @@
         <v>296</v>
       </c>
       <c r="L169" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M169" s="44"/>
       <c r="N169" s="42"/>
@@ -10340,10 +10345,10 @@
         <v>207</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D170" s="48"/>
       <c r="E170" s="49"/>
@@ -10356,7 +10361,7 @@
         <v>86</v>
       </c>
       <c r="L170" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M170" s="48"/>
       <c r="N170" s="47"/>
@@ -10390,10 +10395,10 @@
         <v>207</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D171" s="44"/>
       <c r="E171" s="45"/>
@@ -10403,10 +10408,10 @@
       <c r="I171" s="44"/>
       <c r="J171" s="44"/>
       <c r="K171" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L171" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M171" s="44"/>
       <c r="N171" s="44"/>
@@ -10440,10 +10445,10 @@
         <v>207</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D172" s="44"/>
       <c r="E172" s="45"/>
@@ -10453,10 +10458,10 @@
       <c r="I172" s="44"/>
       <c r="J172" s="44"/>
       <c r="K172" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L172" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M172" s="44"/>
       <c r="N172" s="44"/>
@@ -10490,10 +10495,10 @@
         <v>207</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D173" s="44"/>
       <c r="E173" s="45"/>
@@ -10503,10 +10508,10 @@
       <c r="I173" s="44"/>
       <c r="J173" s="44"/>
       <c r="K173" s="42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L173" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M173" s="44"/>
       <c r="N173" s="44"/>
@@ -10540,10 +10545,10 @@
         <v>207</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D174" s="44"/>
       <c r="E174" s="45"/>
@@ -10553,10 +10558,10 @@
       <c r="I174" s="44"/>
       <c r="J174" s="44"/>
       <c r="K174" s="42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L174" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M174" s="44"/>
       <c r="N174" s="44"/>
@@ -10590,10 +10595,10 @@
         <v>207</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D175" s="44"/>
       <c r="E175" s="45"/>
@@ -10603,10 +10608,10 @@
       <c r="I175" s="44"/>
       <c r="J175" s="44"/>
       <c r="K175" s="42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L175" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M175" s="44"/>
       <c r="N175" s="44"/>
@@ -10640,10 +10645,10 @@
         <v>207</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D176" s="44"/>
       <c r="E176" s="45"/>
@@ -10653,10 +10658,10 @@
       <c r="I176" s="44"/>
       <c r="J176" s="44"/>
       <c r="K176" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L176" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M176" s="44"/>
       <c r="N176" s="44"/>
@@ -10690,10 +10695,10 @@
         <v>207</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D177" s="44"/>
       <c r="E177" s="45"/>
@@ -10703,10 +10708,10 @@
       <c r="I177" s="44"/>
       <c r="J177" s="44"/>
       <c r="K177" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L177" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M177" s="44"/>
       <c r="N177" s="44"/>
@@ -10740,10 +10745,10 @@
         <v>207</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D178" s="44"/>
       <c r="E178" s="45"/>
@@ -10753,10 +10758,10 @@
       <c r="I178" s="44"/>
       <c r="J178" s="44"/>
       <c r="K178" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L178" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M178" s="44"/>
       <c r="N178" s="44"/>
@@ -10790,10 +10795,10 @@
         <v>207</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="45"/>
@@ -10803,10 +10808,10 @@
       <c r="I179" s="44"/>
       <c r="J179" s="44"/>
       <c r="K179" s="42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L179" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M179" s="44"/>
       <c r="N179" s="44"/>
@@ -10840,10 +10845,10 @@
         <v>207</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D180" s="48"/>
       <c r="E180" s="49"/>
@@ -10853,10 +10858,10 @@
       <c r="I180" s="48"/>
       <c r="J180" s="48"/>
       <c r="K180" s="47" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L180" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M180" s="48"/>
       <c r="N180" s="47"/>
@@ -10890,10 +10895,10 @@
         <v>207</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D181" s="44"/>
       <c r="E181" s="45"/>
@@ -10906,7 +10911,7 @@
         <v>216</v>
       </c>
       <c r="L181" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M181" s="44"/>
       <c r="N181" s="44"/>
@@ -10940,10 +10945,10 @@
         <v>207</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D182" s="44"/>
       <c r="E182" s="45"/>
@@ -10956,7 +10961,7 @@
         <v>221</v>
       </c>
       <c r="L182" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M182" s="44"/>
       <c r="N182" s="44"/>
@@ -10990,10 +10995,10 @@
         <v>207</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C183" s="53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D183" s="48"/>
       <c r="E183" s="49"/>
@@ -11003,10 +11008,10 @@
       <c r="I183" s="48"/>
       <c r="J183" s="48"/>
       <c r="K183" s="47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L183" s="47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M183" s="48"/>
       <c r="N183" s="48"/>
@@ -11040,10 +11045,10 @@
         <v>207</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D184" s="44"/>
       <c r="E184" s="45"/>
@@ -11088,10 +11093,10 @@
         <v>207</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C185" s="55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D185" s="44"/>
       <c r="E185" s="45"/>
@@ -11136,10 +11141,10 @@
         <v>207</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C186" s="55" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D186" s="44"/>
       <c r="E186" s="45"/>
@@ -11184,10 +11189,10 @@
         <v>207</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D187" s="48"/>
       <c r="E187" s="49"/>
@@ -11197,10 +11202,10 @@
       <c r="I187" s="48"/>
       <c r="J187" s="48"/>
       <c r="K187" s="47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L187" s="47" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M187" s="48"/>
       <c r="N187" s="48"/>
@@ -11234,10 +11239,10 @@
         <v>207</v>
       </c>
       <c r="B188" s="43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C188" s="55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D188" s="44"/>
       <c r="E188" s="44"/>
@@ -11282,10 +11287,10 @@
         <v>207</v>
       </c>
       <c r="B189" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C189" s="54" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D189" s="44"/>
       <c r="E189" s="44"/>
@@ -11330,10 +11335,10 @@
         <v>207</v>
       </c>
       <c r="B190" s="43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C190" s="54" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D190" s="44"/>
       <c r="E190" s="44"/>
@@ -11378,10 +11383,10 @@
         <v>207</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C191" s="55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D191" s="44"/>
       <c r="E191" s="44"/>
@@ -11508,7 +11513,7 @@
         <v>34</v>
       </c>
       <c r="B194" s="58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C194" s="59" t="s">
         <v>70</v>
@@ -11982,7 +11987,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>1</v>
@@ -12024,13 +12029,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -12054,13 +12059,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
@@ -12108,13 +12113,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -12138,13 +12143,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
@@ -12168,13 +12173,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -12198,13 +12203,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -12252,13 +12257,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
@@ -12282,13 +12287,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="65" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
@@ -12336,13 +12341,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -12366,13 +12371,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -12396,13 +12401,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -12450,13 +12455,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -12480,13 +12485,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B18" s="68" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -12534,13 +12539,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
@@ -12564,13 +12569,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
@@ -12594,13 +12599,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
@@ -12624,13 +12629,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
@@ -12654,13 +12659,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
@@ -12706,13 +12711,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -12736,13 +12741,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -12766,13 +12771,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
@@ -12796,13 +12801,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -12826,13 +12831,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -12856,13 +12861,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
@@ -12886,13 +12891,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
@@ -12916,13 +12921,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="66"/>
@@ -12970,70 +12975,70 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B39" s="9">
         <v>3.0</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B40" s="9">
         <v>7.0</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B41" s="9">
         <v>13.0</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B42" s="9">
         <v>14.0</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -13068,13 +13073,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B45" s="72" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
@@ -13101,13 +13106,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B46" s="73" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
@@ -13164,7 +13169,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C48" s="64" t="s">
         <v>111</v>
@@ -13197,7 +13202,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>119</v>
@@ -13230,10 +13235,10 @@
         <v>108</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C50" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="64"/>
@@ -13263,10 +13268,10 @@
         <v>108</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D51" s="64"/>
       <c r="E51" s="64"/>
@@ -13296,7 +13301,7 @@
         <v>108</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>142</v>
@@ -13329,7 +13334,7 @@
         <v>108</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C53" s="64" t="s">
         <v>137</v>
@@ -13362,10 +13367,10 @@
         <v>108</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D54" s="64"/>
       <c r="E54" s="64"/>
@@ -13395,10 +13400,10 @@
         <v>108</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D55" s="64"/>
       <c r="E55" s="64"/>
@@ -13428,10 +13433,10 @@
         <v>108</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D56" s="64"/>
       <c r="E56" s="64"/>
@@ -13462,10 +13467,10 @@
         <v>122</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -13473,10 +13478,10 @@
         <v>122</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -13484,10 +13489,10 @@
         <v>122</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -13495,10 +13500,10 @@
         <v>122</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
@@ -13507,10 +13512,10 @@
         <v>153</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -13518,10 +13523,10 @@
         <v>153</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -13529,10 +13534,10 @@
         <v>153</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -13541,10 +13546,10 @@
         <v>145</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -13552,10 +13557,10 @@
         <v>145</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -13563,10 +13568,10 @@
         <v>145</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -13579,10 +13584,10 @@
         <v>161</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -13590,10 +13595,10 @@
         <v>161</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -13602,10 +13607,10 @@
         <v>169</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -13613,10 +13618,10 @@
         <v>169</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -13625,10 +13630,10 @@
         <v>184</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -13636,10 +13641,10 @@
         <v>184</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -13647,10 +13652,10 @@
         <v>184</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -13658,10 +13663,10 @@
         <v>184</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -13669,10 +13674,10 @@
         <v>184</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -13680,10 +13685,10 @@
         <v>184</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -13691,10 +13696,10 @@
         <v>184</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -13702,10 +13707,10 @@
         <v>184</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -13713,10 +13718,10 @@
         <v>184</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -13724,110 +13729,110 @@
         <v>184</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -13838,10 +13843,10 @@
         <v>237</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -13849,10 +13854,10 @@
         <v>237</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -13860,10 +13865,10 @@
         <v>237</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -13874,7 +13879,7 @@
         <v>243</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -13887,10 +13892,10 @@
         <v>241</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -13898,10 +13903,10 @@
         <v>241</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -13912,7 +13917,7 @@
         <v>243</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -13922,79 +13927,79 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -14004,46 +14009,46 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -14053,79 +14058,79 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B120" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B121" s="69" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B122" s="69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B123" s="69" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="69" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -14254,25 +14259,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
@@ -14296,24 +14301,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="76" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C2" s="77" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-06_13-43</v>
+        <v>2021-01-06_13-56</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="79" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
@@ -14639,7 +14644,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>1</v>
@@ -14682,13 +14687,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="66" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -14713,13 +14718,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="66" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
@@ -14769,13 +14774,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -14800,13 +14805,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
@@ -14831,13 +14836,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -14862,13 +14867,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -14893,13 +14898,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -14949,13 +14954,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
@@ -14980,13 +14985,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -15011,13 +15016,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -15042,13 +15047,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -15073,13 +15078,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -15104,13 +15109,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="66" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -15160,13 +15165,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -15191,13 +15196,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -15222,13 +15227,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
@@ -15253,13 +15258,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
@@ -15284,13 +15289,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="66" t="s">
+        <v>616</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>614</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>615</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>613</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>614</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
@@ -15315,13 +15320,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
@@ -15371,13 +15376,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="66" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -15402,13 +15407,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -15433,13 +15438,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="66" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -15464,13 +15469,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="66" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
@@ -15495,13 +15500,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -15551,13 +15556,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="66" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
@@ -15582,13 +15587,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="66" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
@@ -15638,121 +15643,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B43" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -15763,26 +15768,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -15793,13 +15798,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="87" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -15824,13 +15829,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="87" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
@@ -15856,226 +15861,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B51" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C51" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C52" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B53" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C53" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B54" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C54" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B55" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B56" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="87" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B58" s="87" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="87" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C59" s="87" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="87" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B60" s="87" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="87" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B61" s="87" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="64" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="64" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="64" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="64" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B66" s="64" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="64" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B69" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C69" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B70" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C70" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B72" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C72" s="88" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B73" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C73" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B74" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -1034,13 +1034,13 @@
     <t>selected(${danger_signs_other}, 'yes')</t>
   </si>
   <si>
-    <t>summary_00</t>
+    <t>summary</t>
   </si>
   <si>
     <t>field-list summary</t>
   </si>
   <si>
-    <t>summary_01</t>
+    <t>summary_submit1</t>
   </si>
   <si>
     <t>Summary Page&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
@@ -1049,7 +1049,7 @@
     <t>h1 yellow</t>
   </si>
   <si>
-    <t>summary_02</t>
+    <t>summary_submit2</t>
   </si>
   <si>
     <t>Click the Submit button at the bottom of the form.</t>
@@ -1058,7 +1058,7 @@
     <t>h2</t>
   </si>
   <si>
-    <t>summary_03</t>
+    <t>summary_title</t>
   </si>
   <si>
     <t>Immunization and Growth monitoring&lt;i class="fa fa-calendar-check-o"&gt;&lt;/i&gt;</t>
@@ -1067,7 +1067,7 @@
     <t>h1 blue</t>
   </si>
   <si>
-    <t>summary_04</t>
+    <t>summary_details</t>
   </si>
   <si>
     <t>Baby's Details&lt;i class="fa fa-vcard"&gt;&lt;/i&gt;</t>
@@ -1076,7 +1076,7 @@
     <t>h1 green</t>
   </si>
   <si>
-    <t>summary_05</t>
+    <t>summary_name</t>
   </si>
   <si>
     <t>${patient_name}</t>
@@ -1085,37 +1085,37 @@
     <t>center</t>
   </si>
   <si>
-    <t>summary_06</t>
+    <t>summary_age</t>
   </si>
   <si>
     <t>${display_age}</t>
   </si>
   <si>
-    <t>summary_07</t>
+    <t>summary_findings</t>
   </si>
   <si>
     <t>Visit Findings&lt;i class="fa fa-medkit"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t>summary_08</t>
+    <t>summary_attended</t>
   </si>
   <si>
     <t>Immunization visit attended</t>
   </si>
   <si>
-    <t>summary_09</t>
+    <t>summary_not_attended</t>
   </si>
   <si>
     <t xml:space="preserve">Immunization visit not attended </t>
   </si>
   <si>
-    <t>summary_10</t>
+    <t>summary_vaccines</t>
   </si>
   <si>
     <t>Vaccines&lt;i class="fa fa-child"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t>summary_11</t>
+    <t>summary_bcg</t>
   </si>
   <si>
     <t>BCG received</t>
@@ -1127,7 +1127,7 @@
     <t>li</t>
   </si>
   <si>
-    <t>summary_12</t>
+    <t>summary_opv</t>
   </si>
   <si>
     <t>Oral Polio Vaccine received</t>
@@ -1136,7 +1136,7 @@
     <t>selected(${vaccines}, 'oral_polio') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_13</t>
+    <t>summary_roto</t>
   </si>
   <si>
     <t>RotaVirus vaccine received</t>
@@ -1145,7 +1145,7 @@
     <t>selected(${vaccines}, 'rotavirus') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_14</t>
+    <t>summary_pheum</t>
   </si>
   <si>
     <t>Pneumococcal vaccine received</t>
@@ -1154,7 +1154,7 @@
     <t>selected(${vaccines}, 'pneumococcal') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_15</t>
+    <t>summary_penta</t>
   </si>
   <si>
     <t>Pentavalent vaccine received</t>
@@ -1163,7 +1163,7 @@
     <t>selected(${vaccines}, 'pentavalent') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_16</t>
+    <t>summary_ipv</t>
   </si>
   <si>
     <t>Inactivated Polio Vaccine (IPV) received</t>
@@ -1172,7 +1172,7 @@
     <t>selected(${vaccines}, 'inactivated_polio') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_17</t>
+    <t>summary_measles</t>
   </si>
   <si>
     <t>Measles vaccine received</t>
@@ -1181,7 +1181,7 @@
     <t>selected(${vaccines}, 'measles') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_18</t>
+    <t>summary_yellow</t>
   </si>
   <si>
     <t>Yellow fever vaccine received</t>
@@ -1190,7 +1190,7 @@
     <t>selected(${vaccines}, 'yellow_fever') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_19</t>
+    <t>summary_vit_a</t>
   </si>
   <si>
     <t>Vitamin A received</t>
@@ -1199,7 +1199,7 @@
     <t>selected(${vaccines}, 'vitamin_a') and selected(${attend_clinic}, 'yes')</t>
   </si>
   <si>
-    <t>summary_20</t>
+    <t>summary_grow_mon</t>
   </si>
   <si>
     <t>Growth monitoring&lt;I class="fa fa-line-chart"&gt;&lt;/i&gt;</t>
@@ -1208,19 +1208,19 @@
     <t>selected(${growth_monitoring_weighed}, 'yes') or selected(${growth_monitoring_measured}, 'yes')</t>
   </si>
   <si>
-    <t>summary_21</t>
+    <t>summary_weight</t>
   </si>
   <si>
     <t>${growth_monitoring_weight} kg</t>
   </si>
   <si>
-    <t>summary_22</t>
+    <t>summary_height</t>
   </si>
   <si>
     <t>${growth_monitoring_height} cm</t>
   </si>
   <si>
-    <t>summary_23</t>
+    <t>summary_referral</t>
   </si>
   <si>
     <t>Referral&lt;i class="fa fa-exclamation-triangle"&gt;&lt;/i&gt;</t>
@@ -1232,25 +1232,25 @@
     <t>h1 red</t>
   </si>
   <si>
-    <t>summary_24</t>
+    <t>summary_referral1</t>
   </si>
   <si>
     <t>Refer immediately the patient to the health facility for a child development visit</t>
   </si>
   <si>
-    <t>summary_25</t>
+    <t>summary_referral2</t>
   </si>
   <si>
     <t>Refer immediately the patient to the health facility as a danger sign has been reported</t>
   </si>
   <si>
-    <t>summary_26</t>
+    <t>summary_referral3</t>
   </si>
   <si>
     <t>Refer or accompany the patient to the health facility</t>
   </si>
   <si>
-    <t>summary_27</t>
+    <t>summary_follow_up</t>
   </si>
   <si>
     <t>Follow Up Tasks&lt;I class="fa fa-flag"&gt;&lt;/i&gt;</t>
@@ -1265,25 +1265,25 @@
     <t>h1 lime</t>
   </si>
   <si>
-    <t>summary_28</t>
+    <t>summary_follow_up1</t>
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be on ${next_apt}</t>
   </si>
   <si>
-    <t>summary_29</t>
+    <t>summary_follow_up2</t>
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be on ${tomorrow_apt}</t>
   </si>
   <si>
-    <t>summary_30</t>
+    <t>summary_follow_up3</t>
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be on ${developmental_apt_date}</t>
   </si>
   <si>
-    <t>summary_31</t>
+    <t>summary_follow_up4</t>
   </si>
   <si>
     <t>The next follow up visit for ${patient_name} will be on ${missed_vaccine_apt_date}</t>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C2" s="77" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-06_13-56</v>
+        <v>2021-01-06_14-02</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>591</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -13,6 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">@marina@medicmobile.org - all the field-list names, field names, data field locations and constraint_messages should be fixed per your suggestions.  
+If you have a spare moment, could you review this form again?  Much thanks!!
+	-Ashley Jones
+Our usual best practice should be renaming "symptom_duration" choices  by "three, seven, etc..". The rest looks good !@ashley@medicmobile.org
+	-Marina Kenfack
+...this to avoid namings to be entirely numeric.
+	-Marina Kenfack
+Thanks for the feedback @marina@medicmobile.org !
+Do you have more on why it's a best practice to avoid entirely numeric values in the "choices" tab for options?
+I cited this as explicitly a good thing because you could use many great "relevant" or "constraint" values:
+   selected(${somefield}, '5')
+   ${somefield} ==  5
+   ${somefield} &gt;=  5
+Specifically, the last one is not  possible when you use a choice of "days_5" or something.  I find that this:
+  ${days_with_cough} &gt;= 5
+is so much shorter and easier to read than:
+   selected(${days_with_cough}, 'days_5') or
+   selected(${days_with_cough}, 'days_7') or
+   selected(${days_with_cough}, 'days_10') or
+  selected(${days_with_cough}, 'days_14')
+	-Ashley Jones</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="678">
   <si>
@@ -1268,25 +1303,25 @@
     <t>summary_follow_up1</t>
   </si>
   <si>
-    <t>The next follow up visit for ${patient_name} will be on ${next_apt}</t>
+    <t>The next immunization follow up visit for ${patient_name} will be on ${next_apt}</t>
   </si>
   <si>
     <t>summary_follow_up2</t>
   </si>
   <si>
-    <t>The next follow up visit for ${patient_name} will be on ${tomorrow_apt}</t>
+    <t>The next referral follow up visit for ${patient_name} will be on ${tomorrow_apt}</t>
   </si>
   <si>
     <t>summary_follow_up3</t>
   </si>
   <si>
-    <t>The next follow up visit for ${patient_name} will be on ${developmental_apt_date}</t>
+    <t>The next child development follow up visit for ${patient_name} will be on ${developmental_apt_date}</t>
   </si>
   <si>
     <t>summary_follow_up4</t>
   </si>
   <si>
-    <t>The next follow up visit for ${patient_name} will be on ${missed_vaccine_apt_date}</t>
+    <t>The next referral follow up visit for ${patient_name} will be on ${missed_vaccine_apt_date}</t>
   </si>
   <si>
     <t>data</t>
@@ -11964,7 +11999,8 @@
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14308,7 +14344,7 @@
       </c>
       <c r="C2" s="77" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-06_14-02</v>
+        <v>2021-01-08_13-53</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>591</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14344,7 +14344,7 @@
       </c>
       <c r="C2" s="77" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-08_13-53</v>
+        <v>2021-01-11_15-10</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>591</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-12_14-43</v>
+        <v>2021-01-15_12-49</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>594</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-15_12-49</v>
+        <v>2021-01-15_15-09</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>594</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-15_15-09</v>
+        <v>2021-01-19_14-22</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>594</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-19_14-22</v>
+        <v>2021-01-20_16-12</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>594</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-20_16-12</v>
+        <v>2021-01-26_15-27</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>594</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="682">
   <si>
     <t>type</t>
   </si>
@@ -752,7 +752,7 @@
     <t>growth_monitoring_vit_a</t>
   </si>
   <si>
-    <t>Did the child receive Vitamin A supplimentation?</t>
+    <t>Did the child receive Vitamin A supplement?</t>
   </si>
   <si>
     <t>${patient_age_in_months} &gt;= 5</t>
@@ -1747,10 +1747,13 @@
     <t>feeding_method_complimentary</t>
   </si>
   <si>
+    <t>Complementary feeding</t>
+  </si>
+  <si>
+    <t>feeding_method_complimentary_2</t>
+  </si>
+  <si>
     <t>Complimentary feeding</t>
-  </si>
-  <si>
-    <t>feeding_method_complimentary_2</t>
   </si>
   <si>
     <t>feeding_method_feeding</t>
@@ -14078,7 +14081,7 @@
         <v>555</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -14086,10 +14089,10 @@
         <v>244</v>
       </c>
       <c r="B104" s="71" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -14110,76 +14113,76 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B107" s="71" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B110" s="71" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B111" s="71" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C111" s="71" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B112" s="71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="72" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B113" s="71" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C113" s="71" t="s">
         <v>329</v>
@@ -14192,43 +14195,43 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B115" s="71" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B116" s="71" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B117" s="71" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B118" s="71" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C118" s="71" t="s">
         <v>329</v>
@@ -14241,7 +14244,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B120" s="72" t="s">
         <v>318</v>
@@ -14252,10 +14255,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B121" s="72" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C121" s="71" t="s">
         <v>321</v>
@@ -14263,7 +14266,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B122" s="72" t="s">
         <v>322</v>
@@ -14274,10 +14277,10 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B123" s="72" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C123" s="71" t="s">
         <v>325</v>
@@ -14285,7 +14288,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B124" s="71" t="s">
         <v>326</v>
@@ -14296,7 +14299,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B125" s="71" t="s">
         <v>328</v>
@@ -14307,13 +14310,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="72" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C126" s="71" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -14442,25 +14445,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1" s="64"/>
       <c r="I1" s="64"/>
@@ -14484,24 +14487,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-26_15-27</v>
+        <v>2021-01-28_15-38</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E2" s="81" t="s">
         <v>417</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="82" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
@@ -14960,10 +14963,10 @@
         <v>432</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
@@ -14991,10 +14994,10 @@
         <v>432</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -15022,10 +15025,10 @@
         <v>432</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -15053,10 +15056,10 @@
         <v>432</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -15084,10 +15087,10 @@
         <v>432</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -15137,13 +15140,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -15168,13 +15171,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -15199,13 +15202,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -15230,13 +15233,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -15261,13 +15264,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -15292,13 +15295,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -15348,13 +15351,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -15379,13 +15382,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -15410,13 +15413,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -15441,13 +15444,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -15472,13 +15475,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>619</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>618</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -15503,13 +15506,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -15559,7 +15562,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B25" s="68" t="s">
         <v>448</v>
@@ -15590,7 +15593,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B26" s="68" t="s">
         <v>450</v>
@@ -15621,7 +15624,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B27" s="68" t="s">
         <v>452</v>
@@ -15652,13 +15655,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -15683,10 +15686,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C29" s="68" t="s">
         <v>329</v>
@@ -15739,10 +15742,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="68" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>420</v>
@@ -15770,10 +15773,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>422</v>
@@ -15826,118 +15829,118 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B43" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C43" t="s">
         <v>329</v>
@@ -15951,26 +15954,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -15981,13 +15984,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="90" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D48" s="90"/>
       <c r="E48" s="90"/>
@@ -16012,10 +16015,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="90" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C49" s="90" t="s">
         <v>479</v>
@@ -16044,65 +16047,65 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B51" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C51" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B52" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C52" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C53" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B54" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C54" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C55" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B56" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C56" t="s">
         <v>329</v>
@@ -16111,43 +16114,43 @@
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="90" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B58" s="90" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="90" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="90" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B60" s="90" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C60" s="90" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="90" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C61" s="90" t="s">
         <v>329</v>
@@ -16156,51 +16159,51 @@
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B67" s="66" t="s">
         <v>456</v>
@@ -16212,55 +16215,55 @@
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B69" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C69" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C70" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B72" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B73" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C73" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C74" t="s">
         <v>329</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14494,7 +14494,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-28_15-38</v>
+        <v>2021-01-29_15-47</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>595</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14494,7 +14494,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-29_15-47</v>
+        <v>2021-02-02_14-49</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>595</v>

--- a/config/default/forms/app/immunization_and_growth.xlsx
+++ b/config/default/forms/app/immunization_and_growth.xlsx
@@ -14494,7 +14494,7 @@
       </c>
       <c r="C2" s="80" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-02_14-49</v>
+        <v>2021-02-04_14-30</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>595</v>
